--- a/project/laliga2019/passing.xlsx
+++ b/project/laliga2019/passing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9652F4C-8513-427A-B69C-285468FF84FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4D9CA1-A9EC-4A05-86A8-CEE35FD343A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9F04EF15-2CF1-471C-AA7A-9ACF7AC82D04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F04EF15-2CF1-471C-AA7A-9ACF7AC82D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Total</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>Att</t>
-  </si>
-  <si>
-    <t>Cmp%</t>
-  </si>
-  <si>
-    <t>TotDist</t>
-  </si>
-  <si>
-    <t>PrgDist</t>
   </si>
   <si>
     <t>Marc-André ter Stegen</t>
@@ -485,6 +476,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,13 +492,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -816,50 +807,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5876396-9F7A-4590-9418-061A030DD5D1}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" style="24" customWidth="1"/>
-    <col min="4" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="21" customWidth="1"/>
+    <col min="4" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="19" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="19" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -881,52 +864,34 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>27</v>
@@ -940,52 +905,34 @@
       <c r="G3" s="12">
         <v>1419</v>
       </c>
-      <c r="H3" s="12">
-        <v>88.1</v>
+      <c r="H3" s="11">
+        <v>11</v>
       </c>
       <c r="I3" s="12">
-        <v>32389</v>
-      </c>
-      <c r="J3" s="10">
-        <v>19742</v>
-      </c>
-      <c r="K3" s="11">
-        <v>11</v>
-      </c>
-      <c r="L3" s="12">
         <v>12</v>
       </c>
+      <c r="J3" s="11">
+        <v>714</v>
+      </c>
+      <c r="K3" s="12">
+        <v>717</v>
+      </c>
+      <c r="L3" s="11">
+        <v>525</v>
+      </c>
       <c r="M3" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="N3" s="11">
-        <v>714</v>
-      </c>
-      <c r="O3" s="12">
-        <v>717</v>
-      </c>
-      <c r="P3" s="10">
-        <v>99.6</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>525</v>
-      </c>
-      <c r="R3" s="12">
         <v>690</v>
       </c>
-      <c r="S3" s="10">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>16</v>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>32</v>
@@ -999,52 +946,34 @@
       <c r="G4" s="12">
         <v>2659</v>
       </c>
-      <c r="H4" s="12">
-        <v>92.9</v>
+      <c r="H4" s="11">
+        <v>16</v>
       </c>
       <c r="I4" s="12">
-        <v>53752</v>
-      </c>
-      <c r="J4" s="10">
-        <v>14795</v>
-      </c>
-      <c r="K4" s="11">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1647</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1723</v>
+      </c>
+      <c r="L4" s="11">
+        <v>806</v>
+      </c>
+      <c r="M4" s="10">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="12">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10">
-        <v>47.1</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1647</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1723</v>
-      </c>
-      <c r="P4" s="10">
-        <v>95.6</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>806</v>
-      </c>
-      <c r="R4" s="12">
-        <v>902</v>
-      </c>
-      <c r="S4" s="10">
-        <v>89.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>32</v>
@@ -1058,52 +987,34 @@
       <c r="G5" s="12">
         <v>2142</v>
       </c>
-      <c r="H5" s="12">
-        <v>79.400000000000006</v>
+      <c r="H5" s="11">
+        <v>38</v>
       </c>
       <c r="I5" s="12">
-        <v>28039</v>
-      </c>
-      <c r="J5" s="10">
-        <v>9544</v>
-      </c>
-      <c r="K5" s="11">
-        <v>38</v>
-      </c>
-      <c r="L5" s="12">
         <v>99</v>
       </c>
+      <c r="J5" s="11">
+        <v>1395</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1609</v>
+      </c>
+      <c r="L5" s="11">
+        <v>267</v>
+      </c>
       <c r="M5" s="10">
-        <v>38.4</v>
-      </c>
-      <c r="N5" s="11">
-        <v>1395</v>
-      </c>
-      <c r="O5" s="12">
-        <v>1609</v>
-      </c>
-      <c r="P5" s="10">
-        <v>86.7</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>267</v>
-      </c>
-      <c r="R5" s="12">
         <v>434</v>
       </c>
-      <c r="S5" s="10">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>20</v>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>28</v>
@@ -1117,52 +1028,34 @@
       <c r="G6" s="12">
         <v>1147</v>
       </c>
-      <c r="H6" s="12">
-        <v>81.5</v>
+      <c r="H6" s="11">
+        <v>40</v>
       </c>
       <c r="I6" s="12">
-        <v>14373</v>
-      </c>
-      <c r="J6" s="10">
-        <v>2499</v>
-      </c>
-      <c r="K6" s="11">
-        <v>40</v>
-      </c>
-      <c r="L6" s="12">
         <v>99</v>
       </c>
+      <c r="J6" s="11">
+        <v>766</v>
+      </c>
+      <c r="K6" s="12">
+        <v>886</v>
+      </c>
+      <c r="L6" s="11">
+        <v>129</v>
+      </c>
       <c r="M6" s="10">
-        <v>40.4</v>
-      </c>
-      <c r="N6" s="11">
-        <v>766</v>
-      </c>
-      <c r="O6" s="12">
-        <v>886</v>
-      </c>
-      <c r="P6" s="10">
-        <v>86.5</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>129</v>
-      </c>
-      <c r="R6" s="12">
         <v>162</v>
       </c>
-      <c r="S6" s="10">
-        <v>79.599999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>22</v>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>31</v>
@@ -1176,52 +1069,34 @@
       <c r="G7" s="12">
         <v>2584</v>
       </c>
-      <c r="H7" s="12">
-        <v>90.2</v>
+      <c r="H7" s="11">
+        <v>56</v>
       </c>
       <c r="I7" s="12">
-        <v>42547</v>
-      </c>
-      <c r="J7" s="10">
-        <v>11344</v>
-      </c>
-      <c r="K7" s="11">
-        <v>56</v>
-      </c>
-      <c r="L7" s="12">
         <v>88</v>
       </c>
+      <c r="J7" s="11">
+        <v>1838</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1992</v>
+      </c>
+      <c r="L7" s="11">
+        <v>437</v>
+      </c>
       <c r="M7" s="10">
-        <v>63.6</v>
-      </c>
-      <c r="N7" s="11">
-        <v>1838</v>
-      </c>
-      <c r="O7" s="12">
-        <v>1992</v>
-      </c>
-      <c r="P7" s="10">
-        <v>92.3</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>437</v>
-      </c>
-      <c r="R7" s="12">
         <v>504</v>
       </c>
-      <c r="S7" s="10">
-        <v>86.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>24</v>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>24</v>
@@ -1235,52 +1110,34 @@
       <c r="G8" s="12">
         <v>2148</v>
       </c>
-      <c r="H8" s="12">
-        <v>92.6</v>
+      <c r="H8" s="11">
+        <v>21</v>
       </c>
       <c r="I8" s="12">
-        <v>41975</v>
-      </c>
-      <c r="J8" s="10">
-        <v>13188</v>
-      </c>
-      <c r="K8" s="11">
-        <v>21</v>
-      </c>
-      <c r="L8" s="12">
         <v>37</v>
       </c>
+      <c r="J8" s="11">
+        <v>1366</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1426</v>
+      </c>
+      <c r="L8" s="11">
+        <v>602</v>
+      </c>
       <c r="M8" s="10">
-        <v>56.8</v>
-      </c>
-      <c r="N8" s="11">
-        <v>1366</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1426</v>
-      </c>
-      <c r="P8" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>602</v>
-      </c>
-      <c r="R8" s="12">
         <v>685</v>
       </c>
-      <c r="S8" s="10">
-        <v>87.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>25</v>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>27</v>
@@ -1294,52 +1151,34 @@
       <c r="G9" s="12">
         <v>2132</v>
       </c>
-      <c r="H9" s="12">
-        <v>92.1</v>
+      <c r="H9" s="11">
+        <v>46</v>
       </c>
       <c r="I9" s="12">
-        <v>30596</v>
-      </c>
-      <c r="J9" s="10">
-        <v>7156</v>
-      </c>
-      <c r="K9" s="11">
-        <v>46</v>
-      </c>
-      <c r="L9" s="12">
         <v>81</v>
       </c>
+      <c r="J9" s="11">
+        <v>1698</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1794</v>
+      </c>
+      <c r="L9" s="11">
+        <v>220</v>
+      </c>
       <c r="M9" s="10">
-        <v>56.8</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1698</v>
-      </c>
-      <c r="O9" s="12">
-        <v>1794</v>
-      </c>
-      <c r="P9" s="10">
-        <v>94.6</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>220</v>
-      </c>
-      <c r="R9" s="12">
         <v>257</v>
       </c>
-      <c r="S9" s="10">
-        <v>85.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>27</v>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>30</v>
@@ -1353,52 +1192,34 @@
       <c r="G10" s="12">
         <v>2141</v>
       </c>
-      <c r="H10" s="12">
-        <v>87.1</v>
+      <c r="H10" s="11">
+        <v>35</v>
       </c>
       <c r="I10" s="12">
-        <v>30213</v>
-      </c>
-      <c r="J10" s="10">
-        <v>9511</v>
-      </c>
-      <c r="K10" s="11">
-        <v>35</v>
-      </c>
-      <c r="L10" s="12">
         <v>86</v>
       </c>
+      <c r="J10" s="11">
+        <v>1600</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1742</v>
+      </c>
+      <c r="L10" s="11">
+        <v>229</v>
+      </c>
       <c r="M10" s="10">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1600</v>
-      </c>
-      <c r="O10" s="12">
-        <v>1742</v>
-      </c>
-      <c r="P10" s="10">
-        <v>91.8</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>229</v>
-      </c>
-      <c r="R10" s="12">
         <v>313</v>
       </c>
-      <c r="S10" s="10">
-        <v>73.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>28</v>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>22</v>
@@ -1412,52 +1233,34 @@
       <c r="G11" s="12">
         <v>1661</v>
       </c>
-      <c r="H11" s="12">
-        <v>92.5</v>
+      <c r="H11" s="11">
+        <v>33</v>
       </c>
       <c r="I11" s="12">
-        <v>25880</v>
-      </c>
-      <c r="J11" s="10">
-        <v>6035</v>
-      </c>
-      <c r="K11" s="11">
-        <v>33</v>
-      </c>
-      <c r="L11" s="12">
         <v>58</v>
       </c>
+      <c r="J11" s="11">
+        <v>1255</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1330</v>
+      </c>
+      <c r="L11" s="11">
+        <v>248</v>
+      </c>
       <c r="M11" s="10">
-        <v>56.9</v>
-      </c>
-      <c r="N11" s="11">
-        <v>1255</v>
-      </c>
-      <c r="O11" s="12">
-        <v>1330</v>
-      </c>
-      <c r="P11" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>248</v>
-      </c>
-      <c r="R11" s="12">
         <v>273</v>
       </c>
-      <c r="S11" s="10">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>29</v>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>25</v>
@@ -1471,52 +1274,34 @@
       <c r="G12" s="12">
         <v>1663</v>
       </c>
-      <c r="H12" s="12">
-        <v>89.4</v>
+      <c r="H12" s="11">
+        <v>25</v>
       </c>
       <c r="I12" s="12">
-        <v>23095</v>
-      </c>
-      <c r="J12" s="10">
-        <v>5895</v>
-      </c>
-      <c r="K12" s="11">
-        <v>25</v>
-      </c>
-      <c r="L12" s="12">
         <v>62</v>
       </c>
+      <c r="J12" s="11">
+        <v>1293</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1400</v>
+      </c>
+      <c r="L12" s="11">
+        <v>169</v>
+      </c>
       <c r="M12" s="10">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="N12" s="11">
-        <v>1293</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1400</v>
-      </c>
-      <c r="P12" s="10">
-        <v>92.4</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>169</v>
-      </c>
-      <c r="R12" s="12">
         <v>201</v>
       </c>
-      <c r="S12" s="10">
-        <v>84.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>30</v>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <v>32</v>
@@ -1530,52 +1315,34 @@
       <c r="G13" s="12">
         <v>697</v>
       </c>
-      <c r="H13" s="12">
-        <v>75.900000000000006</v>
+      <c r="H13" s="11">
+        <v>18</v>
       </c>
       <c r="I13" s="12">
-        <v>8520</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1146</v>
-      </c>
-      <c r="K13" s="11">
-        <v>18</v>
-      </c>
-      <c r="L13" s="12">
         <v>63</v>
       </c>
+      <c r="J13" s="11">
+        <v>436</v>
+      </c>
+      <c r="K13" s="12">
+        <v>529</v>
+      </c>
+      <c r="L13" s="11">
+        <v>75</v>
+      </c>
       <c r="M13" s="10">
-        <v>28.6</v>
-      </c>
-      <c r="N13" s="11">
-        <v>436</v>
-      </c>
-      <c r="O13" s="12">
-        <v>529</v>
-      </c>
-      <c r="P13" s="10">
-        <v>82.4</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>75</v>
-      </c>
-      <c r="R13" s="12">
         <v>105</v>
       </c>
-      <c r="S13" s="10">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>31</v>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>32</v>
@@ -1589,52 +1356,34 @@
       <c r="G14" s="12">
         <v>1252</v>
       </c>
-      <c r="H14" s="12">
-        <v>89.1</v>
+      <c r="H14" s="11">
+        <v>32</v>
       </c>
       <c r="I14" s="12">
-        <v>17955</v>
-      </c>
-      <c r="J14" s="10">
-        <v>3709</v>
-      </c>
-      <c r="K14" s="11">
-        <v>32</v>
-      </c>
-      <c r="L14" s="12">
         <v>60</v>
       </c>
+      <c r="J14" s="11">
+        <v>934</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1016</v>
+      </c>
+      <c r="L14" s="11">
+        <v>149</v>
+      </c>
       <c r="M14" s="10">
-        <v>53.3</v>
-      </c>
-      <c r="N14" s="11">
-        <v>934</v>
-      </c>
-      <c r="O14" s="12">
-        <v>1016</v>
-      </c>
-      <c r="P14" s="10">
-        <v>91.9</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>149</v>
-      </c>
-      <c r="R14" s="12">
         <v>176</v>
       </c>
-      <c r="S14" s="10">
-        <v>84.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>32</v>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>31</v>
@@ -1648,52 +1397,34 @@
       <c r="G15" s="12">
         <v>1485</v>
       </c>
-      <c r="H15" s="12">
-        <v>89</v>
+      <c r="H15" s="11">
+        <v>45</v>
       </c>
       <c r="I15" s="12">
-        <v>22986</v>
-      </c>
-      <c r="J15" s="10">
-        <v>5160</v>
-      </c>
-      <c r="K15" s="11">
-        <v>45</v>
-      </c>
-      <c r="L15" s="12">
         <v>64</v>
       </c>
+      <c r="J15" s="11">
+        <v>1037</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1136</v>
+      </c>
+      <c r="L15" s="11">
+        <v>240</v>
+      </c>
       <c r="M15" s="10">
-        <v>70.3</v>
-      </c>
-      <c r="N15" s="11">
-        <v>1037</v>
-      </c>
-      <c r="O15" s="12">
-        <v>1136</v>
-      </c>
-      <c r="P15" s="10">
-        <v>91.3</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>240</v>
-      </c>
-      <c r="R15" s="12">
         <v>285</v>
       </c>
-      <c r="S15" s="10">
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>22</v>
@@ -1707,52 +1438,34 @@
       <c r="G16" s="12">
         <v>1060</v>
       </c>
-      <c r="H16" s="12">
-        <v>90.7</v>
+      <c r="H16" s="11">
+        <v>24</v>
       </c>
       <c r="I16" s="12">
-        <v>16631</v>
-      </c>
-      <c r="J16" s="10">
-        <v>3246</v>
-      </c>
-      <c r="K16" s="11">
-        <v>24</v>
-      </c>
-      <c r="L16" s="12">
         <v>46</v>
       </c>
+      <c r="J16" s="11">
+        <v>764</v>
+      </c>
+      <c r="K16" s="12">
+        <v>812</v>
+      </c>
+      <c r="L16" s="11">
+        <v>173</v>
+      </c>
       <c r="M16" s="10">
-        <v>52.2</v>
-      </c>
-      <c r="N16" s="11">
-        <v>764</v>
-      </c>
-      <c r="O16" s="12">
-        <v>812</v>
-      </c>
-      <c r="P16" s="10">
-        <v>94.1</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>173</v>
-      </c>
-      <c r="R16" s="12">
         <v>202</v>
       </c>
-      <c r="S16" s="10">
-        <v>85.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>34</v>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -1766,52 +1479,34 @@
       <c r="G17" s="12">
         <v>538</v>
       </c>
-      <c r="H17" s="12">
-        <v>82.9</v>
+      <c r="H17" s="11">
+        <v>16</v>
       </c>
       <c r="I17" s="12">
-        <v>5570</v>
-      </c>
-      <c r="J17" s="10">
-        <v>949</v>
-      </c>
-      <c r="K17" s="11">
-        <v>16</v>
-      </c>
-      <c r="L17" s="12">
         <v>37</v>
       </c>
+      <c r="J17" s="11">
+        <v>415</v>
+      </c>
+      <c r="K17" s="12">
+        <v>467</v>
+      </c>
+      <c r="L17" s="11">
+        <v>15</v>
+      </c>
       <c r="M17" s="10">
-        <v>43.2</v>
-      </c>
-      <c r="N17" s="11">
-        <v>415</v>
-      </c>
-      <c r="O17" s="12">
-        <v>467</v>
-      </c>
-      <c r="P17" s="10">
-        <v>88.9</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>15</v>
-      </c>
-      <c r="R17" s="12">
         <v>34</v>
       </c>
-      <c r="S17" s="10">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>36</v>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>22</v>
@@ -1825,52 +1520,34 @@
       <c r="G18" s="12">
         <v>834</v>
       </c>
-      <c r="H18" s="12">
-        <v>89.8</v>
+      <c r="H18" s="11">
+        <v>18</v>
       </c>
       <c r="I18" s="12">
-        <v>11466</v>
-      </c>
-      <c r="J18" s="10">
-        <v>3038</v>
-      </c>
-      <c r="K18" s="11">
-        <v>18</v>
-      </c>
-      <c r="L18" s="12">
         <v>33</v>
       </c>
+      <c r="J18" s="11">
+        <v>669</v>
+      </c>
+      <c r="K18" s="12">
+        <v>718</v>
+      </c>
+      <c r="L18" s="11">
+        <v>62</v>
+      </c>
       <c r="M18" s="10">
-        <v>54.5</v>
-      </c>
-      <c r="N18" s="11">
-        <v>669</v>
-      </c>
-      <c r="O18" s="12">
-        <v>718</v>
-      </c>
-      <c r="P18" s="10">
-        <v>93.2</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>62</v>
-      </c>
-      <c r="R18" s="12">
         <v>83</v>
       </c>
-      <c r="S18" s="10">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>37</v>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>25</v>
@@ -1884,52 +1561,34 @@
       <c r="G19" s="12">
         <v>808</v>
       </c>
-      <c r="H19" s="12">
-        <v>92.7</v>
+      <c r="H19" s="11">
+        <v>7</v>
       </c>
       <c r="I19" s="12">
-        <v>14432</v>
-      </c>
-      <c r="J19" s="10">
-        <v>4444</v>
-      </c>
-      <c r="K19" s="11">
-        <v>7</v>
-      </c>
-      <c r="L19" s="12">
         <v>14</v>
       </c>
+      <c r="J19" s="11">
+        <v>560</v>
+      </c>
+      <c r="K19" s="12">
+        <v>585</v>
+      </c>
+      <c r="L19" s="11">
+        <v>182</v>
+      </c>
       <c r="M19" s="10">
-        <v>50</v>
-      </c>
-      <c r="N19" s="11">
-        <v>560</v>
-      </c>
-      <c r="O19" s="12">
-        <v>585</v>
-      </c>
-      <c r="P19" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>182</v>
-      </c>
-      <c r="R19" s="12">
         <v>209</v>
       </c>
-      <c r="S19" s="10">
-        <v>87.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>38</v>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -1943,52 +1602,34 @@
       <c r="G20" s="12">
         <v>433</v>
       </c>
-      <c r="H20" s="12">
-        <v>91</v>
+      <c r="H20" s="11">
+        <v>13</v>
       </c>
       <c r="I20" s="12">
-        <v>6796</v>
-      </c>
-      <c r="J20" s="10">
-        <v>1044</v>
-      </c>
-      <c r="K20" s="11">
-        <v>13</v>
-      </c>
-      <c r="L20" s="12">
         <v>21</v>
       </c>
+      <c r="J20" s="11">
+        <v>306</v>
+      </c>
+      <c r="K20" s="12">
+        <v>331</v>
+      </c>
+      <c r="L20" s="11">
+        <v>75</v>
+      </c>
       <c r="M20" s="10">
-        <v>61.9</v>
-      </c>
-      <c r="N20" s="11">
-        <v>306</v>
-      </c>
-      <c r="O20" s="12">
-        <v>331</v>
-      </c>
-      <c r="P20" s="10">
-        <v>92.4</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>75</v>
-      </c>
-      <c r="R20" s="12">
         <v>81</v>
       </c>
-      <c r="S20" s="10">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>39</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
         <v>21</v>
@@ -2002,52 +1643,34 @@
       <c r="G21" s="12">
         <v>287</v>
       </c>
-      <c r="H21" s="12">
-        <v>80.8</v>
+      <c r="H21" s="11">
+        <v>6</v>
       </c>
       <c r="I21" s="12">
-        <v>3236</v>
-      </c>
-      <c r="J21" s="10">
-        <v>641</v>
-      </c>
-      <c r="K21" s="11">
-        <v>6</v>
-      </c>
-      <c r="L21" s="12">
         <v>13</v>
       </c>
+      <c r="J21" s="11">
+        <v>209</v>
+      </c>
+      <c r="K21" s="12">
+        <v>242</v>
+      </c>
+      <c r="L21" s="11">
+        <v>17</v>
+      </c>
       <c r="M21" s="10">
-        <v>46.2</v>
-      </c>
-      <c r="N21" s="11">
-        <v>209</v>
-      </c>
-      <c r="O21" s="12">
-        <v>242</v>
-      </c>
-      <c r="P21" s="10">
-        <v>86.4</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>17</v>
-      </c>
-      <c r="R21" s="12">
         <v>32</v>
       </c>
-      <c r="S21" s="10">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>40</v>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <v>28</v>
@@ -2061,52 +1684,34 @@
       <c r="G22" s="12">
         <v>128</v>
       </c>
-      <c r="H22" s="12">
-        <v>77.3</v>
+      <c r="H22" s="11">
+        <v>3</v>
       </c>
       <c r="I22" s="12">
-        <v>1325</v>
-      </c>
-      <c r="J22" s="10">
-        <v>141</v>
-      </c>
-      <c r="K22" s="11">
-        <v>3</v>
-      </c>
-      <c r="L22" s="12">
         <v>6</v>
       </c>
+      <c r="J22" s="11">
+        <v>91</v>
+      </c>
+      <c r="K22" s="12">
+        <v>116</v>
+      </c>
+      <c r="L22" s="11">
+        <v>5</v>
+      </c>
       <c r="M22" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="11">
-        <v>91</v>
-      </c>
-      <c r="O22" s="12">
-        <v>116</v>
-      </c>
-      <c r="P22" s="10">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>5</v>
-      </c>
-      <c r="R22" s="12">
-        <v>6</v>
-      </c>
-      <c r="S22" s="10">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -2120,52 +1725,34 @@
       <c r="G23" s="12">
         <v>261</v>
       </c>
-      <c r="H23" s="12">
-        <v>77</v>
+      <c r="H23" s="11">
+        <v>4</v>
       </c>
       <c r="I23" s="12">
-        <v>3426</v>
-      </c>
-      <c r="J23" s="10">
-        <v>761</v>
-      </c>
-      <c r="K23" s="11">
-        <v>4</v>
-      </c>
-      <c r="L23" s="12">
         <v>19</v>
       </c>
+      <c r="J23" s="11">
+        <v>166</v>
+      </c>
+      <c r="K23" s="12">
+        <v>188</v>
+      </c>
+      <c r="L23" s="11">
+        <v>31</v>
+      </c>
       <c r="M23" s="10">
-        <v>21.1</v>
-      </c>
-      <c r="N23" s="11">
-        <v>166</v>
-      </c>
-      <c r="O23" s="12">
-        <v>188</v>
-      </c>
-      <c r="P23" s="10">
-        <v>88.3</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>31</v>
-      </c>
-      <c r="R23" s="12">
         <v>54</v>
       </c>
-      <c r="S23" s="10">
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>42</v>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>20</v>
@@ -2179,52 +1766,34 @@
       <c r="G24" s="12">
         <v>208</v>
       </c>
-      <c r="H24" s="12">
-        <v>94.7</v>
+      <c r="H24" s="11">
+        <v>0</v>
       </c>
       <c r="I24" s="12">
-        <v>3840</v>
-      </c>
-      <c r="J24" s="10">
-        <v>793</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
         <v>1</v>
       </c>
+      <c r="J24" s="11">
+        <v>147</v>
+      </c>
+      <c r="K24" s="12">
+        <v>153</v>
+      </c>
+      <c r="L24" s="11">
+        <v>50</v>
+      </c>
       <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>147</v>
-      </c>
-      <c r="O24" s="12">
-        <v>153</v>
-      </c>
-      <c r="P24" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>50</v>
-      </c>
-      <c r="R24" s="12">
         <v>54</v>
       </c>
-      <c r="S24" s="10">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>43</v>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <v>26</v>
@@ -2238,52 +1807,34 @@
       <c r="G25" s="12">
         <v>164</v>
       </c>
-      <c r="H25" s="12">
-        <v>86.6</v>
+      <c r="H25" s="11">
+        <v>2</v>
       </c>
       <c r="I25" s="12">
-        <v>2279</v>
-      </c>
-      <c r="J25" s="10">
-        <v>362</v>
-      </c>
-      <c r="K25" s="11">
-        <v>2</v>
-      </c>
-      <c r="L25" s="12">
         <v>5</v>
       </c>
+      <c r="J25" s="11">
+        <v>117</v>
+      </c>
+      <c r="K25" s="12">
+        <v>127</v>
+      </c>
+      <c r="L25" s="11">
+        <v>23</v>
+      </c>
       <c r="M25" s="10">
-        <v>40</v>
-      </c>
-      <c r="N25" s="11">
-        <v>117</v>
-      </c>
-      <c r="O25" s="12">
-        <v>127</v>
-      </c>
-      <c r="P25" s="10">
-        <v>92.1</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>23</v>
-      </c>
-      <c r="R25" s="12">
         <v>32</v>
       </c>
-      <c r="S25" s="10">
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>44</v>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
         <v>30</v>
@@ -2297,52 +1848,34 @@
       <c r="G26" s="12">
         <v>62</v>
       </c>
-      <c r="H26" s="12">
-        <v>88.7</v>
+      <c r="H26" s="11">
+        <v>0</v>
       </c>
       <c r="I26" s="12">
-        <v>1175</v>
-      </c>
-      <c r="J26" s="10">
-        <v>662</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
         <v>1</v>
       </c>
+      <c r="J26" s="11">
+        <v>41</v>
+      </c>
+      <c r="K26" s="12">
+        <v>41</v>
+      </c>
+      <c r="L26" s="11">
+        <v>14</v>
+      </c>
       <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>41</v>
-      </c>
-      <c r="O26" s="12">
-        <v>41</v>
-      </c>
-      <c r="P26" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>14</v>
-      </c>
-      <c r="R26" s="12">
         <v>20</v>
       </c>
-      <c r="S26" s="10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>45</v>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>21</v>
@@ -2356,52 +1889,34 @@
       <c r="G27" s="12">
         <v>156</v>
       </c>
-      <c r="H27" s="12">
-        <v>91.7</v>
+      <c r="H27" s="11">
+        <v>3</v>
       </c>
       <c r="I27" s="12">
-        <v>2693</v>
-      </c>
-      <c r="J27" s="10">
-        <v>591</v>
-      </c>
-      <c r="K27" s="11">
-        <v>3</v>
-      </c>
-      <c r="L27" s="12">
         <v>6</v>
       </c>
+      <c r="J27" s="11">
+        <v>106</v>
+      </c>
+      <c r="K27" s="12">
+        <v>109</v>
+      </c>
+      <c r="L27" s="11">
+        <v>34</v>
+      </c>
       <c r="M27" s="10">
-        <v>50</v>
-      </c>
-      <c r="N27" s="11">
-        <v>106</v>
-      </c>
-      <c r="O27" s="12">
-        <v>109</v>
-      </c>
-      <c r="P27" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>34</v>
-      </c>
-      <c r="R27" s="12">
         <v>41</v>
       </c>
-      <c r="S27" s="10">
-        <v>82.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>46</v>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
@@ -2415,52 +1930,34 @@
       <c r="G28" s="12">
         <v>81</v>
       </c>
-      <c r="H28" s="12">
-        <v>77.8</v>
+      <c r="H28" s="11">
+        <v>0</v>
       </c>
       <c r="I28" s="12">
-        <v>1044</v>
-      </c>
-      <c r="J28" s="10">
-        <v>263</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="12">
         <v>6</v>
       </c>
+      <c r="J28" s="11">
+        <v>56</v>
+      </c>
+      <c r="K28" s="12">
+        <v>64</v>
+      </c>
+      <c r="L28" s="11">
+        <v>7</v>
+      </c>
       <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <v>56</v>
-      </c>
-      <c r="O28" s="12">
-        <v>64</v>
-      </c>
-      <c r="P28" s="10">
-        <v>87.5</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>7</v>
-      </c>
-      <c r="R28" s="12">
         <v>11</v>
       </c>
-      <c r="S28" s="10">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>47</v>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
         <v>19</v>
@@ -2474,52 +1971,34 @@
       <c r="G29" s="12">
         <v>53</v>
       </c>
-      <c r="H29" s="12">
-        <v>94.3</v>
+      <c r="H29" s="11">
+        <v>1</v>
       </c>
       <c r="I29" s="12">
-        <v>1010</v>
-      </c>
-      <c r="J29" s="10">
-        <v>240</v>
-      </c>
-      <c r="K29" s="11">
         <v>1</v>
       </c>
-      <c r="L29" s="12">
-        <v>1</v>
+      <c r="J29" s="11">
+        <v>37</v>
+      </c>
+      <c r="K29" s="12">
+        <v>39</v>
+      </c>
+      <c r="L29" s="11">
+        <v>12</v>
       </c>
       <c r="M29" s="10">
-        <v>100</v>
-      </c>
-      <c r="N29" s="11">
-        <v>37</v>
-      </c>
-      <c r="O29" s="12">
-        <v>39</v>
-      </c>
-      <c r="P29" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="Q29" s="11">
-        <v>12</v>
-      </c>
-      <c r="R29" s="12">
         <v>13</v>
       </c>
-      <c r="S29" s="10">
-        <v>92.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3">
         <v>20</v>
@@ -2533,46 +2012,28 @@
       <c r="G30" s="15">
         <v>10</v>
       </c>
-      <c r="H30" s="15">
-        <v>90</v>
+      <c r="H30" s="14">
+        <v>1</v>
       </c>
       <c r="I30" s="15">
-        <v>127</v>
-      </c>
-      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
         <v>7</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="15">
+        <v>8</v>
+      </c>
+      <c r="L30" s="14">
         <v>1</v>
       </c>
-      <c r="L30" s="15">
+      <c r="M30" s="13">
         <v>1</v>
       </c>
-      <c r="M30" s="13">
-        <v>100</v>
-      </c>
-      <c r="N30" s="14">
-        <v>7</v>
-      </c>
-      <c r="O30" s="15">
-        <v>8</v>
-      </c>
-      <c r="P30" s="13">
-        <v>87.5</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>1</v>
-      </c>
-      <c r="R30" s="15">
-        <v>1</v>
-      </c>
-      <c r="S30" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -2586,50 +2047,32 @@
       <c r="G31" s="8">
         <v>28213</v>
       </c>
-      <c r="H31" s="8">
-        <v>88.5</v>
+      <c r="H31" s="7">
+        <v>514</v>
       </c>
       <c r="I31" s="8">
-        <v>447370</v>
-      </c>
-      <c r="J31" s="16">
-        <v>126906</v>
-      </c>
-      <c r="K31" s="7">
-        <v>514</v>
-      </c>
-      <c r="L31" s="8">
         <v>1053</v>
       </c>
+      <c r="J31" s="7">
+        <v>19670</v>
+      </c>
+      <c r="K31" s="8">
+        <v>21300</v>
+      </c>
+      <c r="L31" s="7">
+        <v>4797</v>
+      </c>
       <c r="M31" s="16">
-        <v>48.8</v>
-      </c>
-      <c r="N31" s="7">
-        <v>19670</v>
-      </c>
-      <c r="O31" s="8">
-        <v>21300</v>
-      </c>
-      <c r="P31" s="16">
-        <v>92.3</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>4797</v>
-      </c>
-      <c r="R31" s="8">
         <v>5860</v>
-      </c>
-      <c r="S31" s="16">
-        <v>81.900000000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://fbref.com/en/players/6f51e382/Marc-Andre-ter-Stegen" xr:uid="{194A4A3F-2D0D-4843-9948-795C14B531B2}"/>
